--- a/ui-testsuite/src/main/resources/TestData/ATR_Valid_APJ_CheckMatchRegionFields.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/ATR_Valid_APJ_CheckMatchRegionFields.xlsx
@@ -998,9 +998,6 @@
     <t>AEC</t>
   </si>
   <si>
-    <t>Afganistan</t>
-  </si>
-  <si>
     <t>Bangladesh</t>
   </si>
   <si>
@@ -1098,6 +1095,9 @@
   </si>
   <si>
     <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
   </si>
 </sst>
 </file>
@@ -1551,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD943"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3252,37 +3252,37 @@
         <v>162</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>332</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>333</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>299</v>
       </c>
       <c r="H5" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="N5" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="P5" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="R5" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="N5" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="R5" s="16" t="s">
-        <v>337</v>
-      </c>
       <c r="S5" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AA5" s="18">
         <v>42307</v>
@@ -3300,16 +3300,16 @@
       <c r="AK5" s="14"/>
       <c r="AM5" s="14"/>
       <c r="AN5" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="AX5" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="AX5" s="16" t="s">
+      <c r="AZ5" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="BO5" s="16" t="s">
         <v>339</v>
-      </c>
-      <c r="AZ5" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="BO5" s="16" t="s">
-        <v>340</v>
       </c>
       <c r="BQ5" s="16" t="s">
         <v>169</v>
@@ -3325,7 +3325,7 @@
         <v>10</v>
       </c>
       <c r="BW5" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="BX5" s="16" t="s">
         <v>214</v>
@@ -3334,19 +3334,19 @@
         <v>249</v>
       </c>
       <c r="BZ5" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="CA5" s="23" t="s">
         <v>251</v>
       </c>
       <c r="CC5" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="CD5" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="CE5" s="16" t="s">
         <v>343</v>
-      </c>
-      <c r="CE5" s="16" t="s">
-        <v>344</v>
       </c>
       <c r="CF5" s="16" t="s">
         <v>170</v>
@@ -3358,7 +3358,7 @@
         <v>170</v>
       </c>
       <c r="CJ5" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CK5" s="17"/>
       <c r="CP5" s="19"/>
@@ -3387,7 +3387,7 @@
         <v>43037</v>
       </c>
       <c r="DF5" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="DG5" s="21">
         <v>0</v>
@@ -3398,7 +3398,7 @@
       <c r="DI5" s="17"/>
       <c r="DJ5" s="17"/>
       <c r="DK5" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="DL5" s="16" t="s">
         <v>257</v>
@@ -3441,28 +3441,28 @@
         <v>319</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H6" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="N6" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="P6" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="R6" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="N6" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="R6" s="16" t="s">
-        <v>346</v>
-      </c>
       <c r="S6" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AA6" s="18">
         <v>42309</v>
@@ -3480,16 +3480,16 @@
       <c r="AK6" s="14"/>
       <c r="AM6" s="14"/>
       <c r="AN6" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AX6" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AZ6" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BO6" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="BQ6" s="16" t="s">
         <v>169</v>
@@ -3499,13 +3499,13 @@
       </c>
       <c r="BS6" s="18"/>
       <c r="BT6" s="23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BV6" s="24">
         <v>11</v>
       </c>
       <c r="BW6" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="BX6" s="16" t="s">
         <v>214</v>
@@ -3514,19 +3514,19 @@
         <v>249</v>
       </c>
       <c r="BZ6" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="CA6" s="23" t="s">
         <v>251</v>
       </c>
       <c r="CC6" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="CD6" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="CE6" s="16" t="s">
         <v>343</v>
-      </c>
-      <c r="CE6" s="16" t="s">
-        <v>344</v>
       </c>
       <c r="CF6" s="16" t="s">
         <v>170</v>
@@ -3538,7 +3538,7 @@
         <v>170</v>
       </c>
       <c r="CJ6" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="CK6" s="17"/>
       <c r="CP6" s="19"/>
@@ -3567,7 +3567,7 @@
         <v>43039</v>
       </c>
       <c r="DF6" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="DG6" s="21">
         <v>0</v>
@@ -3578,7 +3578,7 @@
       <c r="DI6" s="17"/>
       <c r="DJ6" s="17"/>
       <c r="DK6" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="DL6" s="16" t="s">
         <v>257</v>
@@ -4722,7 +4722,7 @@
         <v>323</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>304</v>
@@ -5089,7 +5089,7 @@
         <v>323</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>305</v>
@@ -5456,7 +5456,7 @@
         <v>323</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>306</v>
@@ -5823,7 +5823,7 @@
         <v>322</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>307</v>
@@ -6557,7 +6557,7 @@
         <v>322</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>309</v>
@@ -6924,7 +6924,7 @@
         <v>322</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>310</v>
@@ -7658,7 +7658,7 @@
         <v>322</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>310</v>
@@ -8025,7 +8025,7 @@
         <v>322</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>310</v>
@@ -8386,13 +8386,13 @@
         <v>162</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>310</v>
@@ -8753,37 +8753,37 @@
         <v>162</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>356</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>357</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>300</v>
       </c>
       <c r="H21" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="N21" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="P21" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="R21" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="N21" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="P21" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="R21" s="16" t="s">
-        <v>349</v>
-      </c>
       <c r="S21" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AA21" s="18">
         <v>40766</v>
@@ -8801,16 +8801,16 @@
       <c r="AK21" s="14"/>
       <c r="AM21" s="14"/>
       <c r="AN21" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="AX21" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="AX21" s="16" t="s">
+      <c r="AZ21" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="BO21" s="16" t="s">
         <v>351</v>
-      </c>
-      <c r="AZ21" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="BO21" s="16" t="s">
-        <v>352</v>
       </c>
       <c r="BQ21" s="16" t="s">
         <v>169</v>
@@ -8826,7 +8826,7 @@
         <v>8</v>
       </c>
       <c r="BW21" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="BX21" s="16" t="s">
         <v>214</v>
@@ -8835,19 +8835,19 @@
         <v>249</v>
       </c>
       <c r="BZ21" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="CA21" s="23" t="s">
         <v>251</v>
       </c>
       <c r="CC21" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CD21" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="CE21" s="16" t="s">
         <v>353</v>
-      </c>
-      <c r="CE21" s="16" t="s">
-        <v>354</v>
       </c>
       <c r="CF21" s="16" t="s">
         <v>170</v>
@@ -8859,7 +8859,7 @@
         <v>170</v>
       </c>
       <c r="CJ21" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="CK21" s="17"/>
       <c r="CP21" s="19"/>
@@ -8888,7 +8888,7 @@
         <v>42735</v>
       </c>
       <c r="DF21" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="DG21" s="21">
         <v>0</v>
@@ -8899,7 +8899,7 @@
       <c r="DI21" s="17"/>
       <c r="DJ21" s="17"/>
       <c r="DK21" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="DL21" s="16" t="s">
         <v>257</v>
